--- a/2025 Software Engineering Use Cases and Features.xlsx
+++ b/2025 Software Engineering Use Cases and Features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nbccollege-my.sharepoint.com/personal/chris_london_nbcc_ca/Documents/Chris/Courses/Course Materials/2025/01 Winter/SYST1088A Software Engineering/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="14_{07392151-F6DE-4DBD-A1AD-D405B05DFA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C3EF3F2-124E-41E5-A690-44DAC773F939}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="14_{07392151-F6DE-4DBD-A1AD-D405B05DFA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF8D02FB-40E9-4785-9C49-67DDDE17C765}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5070" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-2955" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINTS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="93">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -727,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,7 +862,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -878,9 +877,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -888,8 +884,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,7 +1133,7 @@
   <dimension ref="A1:N991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1218,15 +1217,15 @@
         <v>45</v>
       </c>
       <c r="H2" s="52"/>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="68" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="52"/>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="73" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="56"/>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="79" t="s">
         <v>53</v>
       </c>
       <c r="N2" s="59"/>
@@ -1252,15 +1251,15 @@
         <v>44</v>
       </c>
       <c r="H3" s="53"/>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="69" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="53"/>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="74" t="s">
         <v>32</v>
       </c>
       <c r="L3" s="57"/>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="80" t="s">
         <v>75</v>
       </c>
       <c r="N3" s="60"/>
@@ -1287,15 +1286,15 @@
         <v>11</v>
       </c>
       <c r="H4" s="54"/>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="70" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="54"/>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="75" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="57"/>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="80" t="s">
         <v>76</v>
       </c>
       <c r="N4" s="60"/>
@@ -1321,15 +1320,15 @@
         <v>34</v>
       </c>
       <c r="H5" s="53"/>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="69" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="53"/>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="74" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="57"/>
-      <c r="M5" s="81" t="s">
+      <c r="M5" s="80" t="s">
         <v>66</v>
       </c>
       <c r="N5" s="60"/>
@@ -1356,15 +1355,15 @@
         <v>35</v>
       </c>
       <c r="H6" s="55"/>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="71" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="55"/>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="76" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="57"/>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="80" t="s">
         <v>88</v>
       </c>
       <c r="N6" s="11"/>
@@ -1391,11 +1390,11 @@
         <v>36</v>
       </c>
       <c r="H7" s="55"/>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="69" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="55"/>
-      <c r="K7" s="78" t="s">
+      <c r="K7" s="77" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="57"/>
@@ -1424,11 +1423,11 @@
         <v>19</v>
       </c>
       <c r="H8" s="55"/>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="70" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="55"/>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="77" t="s">
         <v>53</v>
       </c>
       <c r="L8" s="57"/>
@@ -1456,11 +1455,11 @@
         <v>31</v>
       </c>
       <c r="H9" s="53"/>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="66" t="s">
         <v>71</v>
       </c>
       <c r="J9" s="53"/>
-      <c r="K9" s="67" t="s">
+      <c r="K9" s="66" t="s">
         <v>74</v>
       </c>
       <c r="L9" s="57"/>
@@ -1486,14 +1485,14 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="66" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="H10" s="53"/>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="66" t="s">
         <v>72</v>
       </c>
       <c r="J10" s="53"/>
-      <c r="K10" s="67" t="s">
+      <c r="K10" s="66" t="s">
         <v>73</v>
       </c>
       <c r="L10" s="57"/>
@@ -1518,14 +1517,14 @@
         <v/>
       </c>
       <c r="G11" s="66" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="H11" s="53"/>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="53"/>
-      <c r="K11" s="79" t="s">
+      <c r="K11" s="78" t="s">
         <v>66</v>
       </c>
       <c r="L11" s="58"/>
@@ -1551,11 +1550,11 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="67" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="4"/>
-      <c r="K12" s="79" t="s">
+      <c r="K12" s="78" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1576,9 +1575,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G13" s="67" t="s">
-        <v>70</v>
-      </c>
       <c r="H13" s="54"/>
       <c r="I13" s="2"/>
       <c r="K13" s="2"/>
@@ -1601,9 +1597,6 @@
         <v/>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="68" t="s">
-        <v>66</v>
-      </c>
       <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6088,354 +6081,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="88" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
     </row>
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
     </row>
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
     </row>
     <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
     </row>
     <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
     </row>
     <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
     </row>
     <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
     </row>
     <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
     </row>
     <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
     </row>
     <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
     </row>
     <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
     </row>
     <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="85" t="s">
+      <c r="A33" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
     </row>
     <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
     </row>
     <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
     </row>
     <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
     </row>
     <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
     </row>
     <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
     </row>
     <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6458,14 +6451,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="90" t="str">
         <f>SPRINTS!G1</f>
         <v>Sprint 1 (Mar 17 - 23)</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -6491,7 +6484,7 @@
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
@@ -6500,7 +6493,7 @@
       <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="83"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -6509,7 +6502,7 @@
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -6518,223 +6511,223 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="83"/>
+      <c r="E6" s="81"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="E15" s="83"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="81"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="81"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="E20" s="83"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="E21" s="83"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="E22" s="83"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="E23" s="83"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="E24" s="83"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="E28" s="83"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="E29" s="83"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="E30" s="83"/>
+      <c r="E30" s="81"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="E31" s="83"/>
+      <c r="E31" s="81"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="E32" s="83"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="E33" s="83"/>
+      <c r="E33" s="81"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="E34" s="83"/>
+      <c r="E34" s="81"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="E35" s="83"/>
+      <c r="E35" s="81"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="E36" s="83"/>
+      <c r="E36" s="81"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="81"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="E38" s="83"/>
+      <c r="E38" s="81"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="E39" s="83"/>
+      <c r="E39" s="81"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="E40" s="83"/>
+      <c r="E40" s="81"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="E41" s="83"/>
+      <c r="E41" s="81"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="E42" s="83"/>
+      <c r="E42" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6773,14 +6766,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="90" t="str">
         <f>SPRINTS!I1</f>
         <v>Sprint 2 (Mar 24-30)</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -6806,7 +6799,7 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
@@ -6815,7 +6808,7 @@
       <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="83"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -6824,7 +6817,7 @@
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -6833,223 +6826,223 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="83"/>
+      <c r="E6" s="81"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="E15" s="83"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="81"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="81"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="E20" s="83"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="E21" s="83"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="E22" s="83"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="E23" s="83"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="E24" s="83"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="E28" s="83"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="E29" s="83"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="E30" s="83"/>
+      <c r="E30" s="81"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="E31" s="83"/>
+      <c r="E31" s="81"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="E32" s="83"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="E33" s="83"/>
+      <c r="E33" s="81"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="E34" s="83"/>
+      <c r="E34" s="81"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="E35" s="83"/>
+      <c r="E35" s="81"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="E36" s="83"/>
+      <c r="E36" s="81"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="81"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="E38" s="83"/>
+      <c r="E38" s="81"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="E39" s="83"/>
+      <c r="E39" s="81"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="E40" s="83"/>
+      <c r="E40" s="81"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="E41" s="83"/>
+      <c r="E41" s="81"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="E42" s="83"/>
+      <c r="E42" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7087,14 +7080,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="90" t="str">
         <f>SPRINTS!K1</f>
         <v>Sprint 3 (Mar 31 - Apr 6)</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7120,7 +7113,7 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
@@ -7129,7 +7122,7 @@
       <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="83"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -7138,7 +7131,7 @@
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -7147,223 +7140,223 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="83"/>
+      <c r="E6" s="81"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="E15" s="83"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="81"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="81"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="E20" s="83"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="E21" s="83"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="E22" s="83"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="E23" s="83"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="E24" s="83"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="E28" s="83"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="E29" s="83"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="E30" s="83"/>
+      <c r="E30" s="81"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="E31" s="83"/>
+      <c r="E31" s="81"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="E32" s="83"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="E33" s="83"/>
+      <c r="E33" s="81"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="E34" s="83"/>
+      <c r="E34" s="81"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="E35" s="83"/>
+      <c r="E35" s="81"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="E36" s="83"/>
+      <c r="E36" s="81"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="81"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="E38" s="83"/>
+      <c r="E38" s="81"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="E39" s="83"/>
+      <c r="E39" s="81"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="E40" s="83"/>
+      <c r="E40" s="81"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="E41" s="83"/>
+      <c r="E41" s="81"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="E42" s="83"/>
+      <c r="E42" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7401,14 +7394,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="90" t="str">
         <f>SPRINTS!M1</f>
         <v>Sprint 4 (Apr 7 - 11)</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7434,7 +7427,7 @@
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
@@ -7443,7 +7436,7 @@
       <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="83"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -7452,7 +7445,7 @@
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -7461,223 +7454,223 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="83"/>
+      <c r="E6" s="81"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="E15" s="83"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="81"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="81"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="E20" s="83"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="E21" s="83"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="E22" s="83"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="E23" s="83"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="E24" s="83"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="E28" s="83"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="E29" s="83"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="E30" s="83"/>
+      <c r="E30" s="81"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="E31" s="83"/>
+      <c r="E31" s="81"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="E32" s="83"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="E33" s="83"/>
+      <c r="E33" s="81"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="E34" s="83"/>
+      <c r="E34" s="81"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="E35" s="83"/>
+      <c r="E35" s="81"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="E36" s="83"/>
+      <c r="E36" s="81"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="81"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="E38" s="83"/>
+      <c r="E38" s="81"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="E39" s="83"/>
+      <c r="E39" s="81"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="E40" s="83"/>
+      <c r="E40" s="81"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="E41" s="83"/>
+      <c r="E41" s="81"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="E42" s="83"/>
+      <c r="E42" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7700,15 +7693,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AppVersion xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
@@ -7759,6 +7743,15 @@
     <FolderType xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8203,14 +8196,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43F0676B-6F5B-4293-BCF9-5D31F49595CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8223,6 +8208,14 @@
     <ds:schemaRef ds:uri="816b5155-8360-4c81-a424-e5394c4c2d61"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2025 Software Engineering Use Cases and Features.xlsx
+++ b/2025 Software Engineering Use Cases and Features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nbccollege-my.sharepoint.com/personal/chris_london_nbcc_ca/Documents/Chris/Courses/Course Materials/2025/01 Winter/SYST1088A Software Engineering/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsok6\Documents\NBCC Work Documents\Winter 2024\Software Engineering\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="14_{07392151-F6DE-4DBD-A1AD-D405B05DFA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF8D02FB-40E9-4785-9C49-67DDDE17C765}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D9508A-FB92-4238-8542-380272132F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-2955" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINTS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="153">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -317,6 +317,186 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>All employees must log in</t>
+  </si>
+  <si>
+    <t>Store Manager</t>
+  </si>
+  <si>
+    <t>All employees can change the password for their account</t>
+  </si>
+  <si>
+    <t>All employees can view the list and general info about other employees</t>
+  </si>
+  <si>
+    <t>Admin, Warehouse Manager</t>
+  </si>
+  <si>
+    <t>Add new suppliers to the list of available suppliers</t>
+  </si>
+  <si>
+    <t>Creation of a new database</t>
+  </si>
+  <si>
+    <t>Edit the information about a supplier</t>
+  </si>
+  <si>
+    <t>Delivering of order to a store</t>
+  </si>
+  <si>
+    <t>Keeping track of orders</t>
+  </si>
+  <si>
+    <t>Admin, Customer</t>
+  </si>
+  <si>
+    <t>Placing online orders</t>
+  </si>
+  <si>
+    <t>Add stores, offices, warehouses ect</t>
+  </si>
+  <si>
+    <t>Used whenever inventory changes states/is added/removed</t>
+  </si>
+  <si>
+    <t>When user logs out</t>
+  </si>
+  <si>
+    <t>Display info about an existing site</t>
+  </si>
+  <si>
+    <t>View a list of all sites</t>
+  </si>
+  <si>
+    <t>Add a new user</t>
+  </si>
+  <si>
+    <t>Edit info for a user</t>
+  </si>
+  <si>
+    <t>Delete user</t>
+  </si>
+  <si>
+    <t>Edit user permissions</t>
+  </si>
+  <si>
+    <t>Modify the data of a record</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Create an audit record for every transaction</t>
+  </si>
+  <si>
+    <t>Create a report to specifications</t>
+  </si>
+  <si>
+    <t>Create weekly orders for a store</t>
+  </si>
+  <si>
+    <t>Create an emergency order for a store when required</t>
+  </si>
+  <si>
+    <t>Store accepts an order from driver/courier</t>
+  </si>
+  <si>
+    <t>Manager receives order from store site</t>
+  </si>
+  <si>
+    <t>Admin, Store Manager, Store Worker, Customer</t>
+  </si>
+  <si>
+    <t>Store receives and prepares online order</t>
+  </si>
+  <si>
+    <t>Receive and prepare order specific to the store</t>
+  </si>
+  <si>
+    <t>Complete order for store</t>
+  </si>
+  <si>
+    <t>Create records to track damaged or stolen goods</t>
+  </si>
+  <si>
+    <t>Create record to track returned items</t>
+  </si>
+  <si>
+    <t>Add new product to inventory list</t>
+  </si>
+  <si>
+    <t>Edit a product in the inventory list</t>
+  </si>
+  <si>
+    <t>Create supplier order</t>
+  </si>
+  <si>
+    <t>Modify thresholds for reorder and optimum levels</t>
+  </si>
+  <si>
+    <t>Admin, Warehouse Manager, System</t>
+  </si>
+  <si>
+    <t>Add ordered item to backorder</t>
+  </si>
+  <si>
+    <t>Edit item information</t>
+  </si>
+  <si>
+    <t>Transport order to store site</t>
+  </si>
+  <si>
+    <t>Check what orders are going out on what day of the week</t>
+  </si>
+  <si>
+    <t>Search for status of an online order</t>
+  </si>
+  <si>
+    <t>Curbside pickup when order is received at store</t>
+  </si>
+  <si>
+    <t>Admin, System</t>
+  </si>
+  <si>
+    <t>Manager, Warehouse Manager, Store Manager</t>
+  </si>
+  <si>
+    <t>Store Manager, Asst Store Manager, Warehouse Manager</t>
+  </si>
+  <si>
+    <t>Store Worker, Store Manager, Assistant Store Manager</t>
+  </si>
+  <si>
+    <t>Warehouse Manager</t>
+  </si>
+  <si>
+    <t>Store Manager, Store Worker, Customer</t>
+  </si>
+  <si>
+    <t>Store Manager, Warehouse Manager</t>
+  </si>
+  <si>
+    <t>Driver, Warehouse Worker</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Warehouse Worker</t>
+  </si>
+  <si>
+    <t>Warehouse Manager, Admin</t>
+  </si>
+  <si>
+    <t>Admin, Store Worker, Store Manager</t>
   </si>
 </sst>
 </file>
@@ -727,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,6 +1069,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,10 +1107,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1132,8 +1313,8 @@
   </sheetPr>
   <dimension ref="A1:N991"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6068,15 +6249,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27AF674-7194-46AF-8232-662BDA70420A}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" customWidth="1"/>
     <col min="4" max="4" width="68.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6114,321 +6295,512 @@
       <c r="A4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="89" t="s">
+        <v>93</v>
+      </c>
       <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
+      <c r="D4" s="89" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="89"/>
+      <c r="B5" s="91" t="s">
+        <v>93</v>
+      </c>
       <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
+      <c r="D5" s="91" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="89"/>
+      <c r="B6" s="91" t="s">
+        <v>93</v>
+      </c>
       <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
+      <c r="D6" s="92" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="89"/>
+      <c r="B8" s="89" t="s">
+        <v>94</v>
+      </c>
       <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
+      <c r="D8" s="92" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="89" t="s">
+        <v>94</v>
+      </c>
       <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
+      <c r="D9" s="92" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="89"/>
+      <c r="B10" s="89" t="s">
+        <v>94</v>
+      </c>
       <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
+      <c r="D10" s="92" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="89"/>
+      <c r="B11" s="89" t="s">
+        <v>93</v>
+      </c>
       <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
+      <c r="D11" s="89" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="89"/>
+      <c r="B12" s="89" t="s">
+        <v>94</v>
+      </c>
       <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
+      <c r="D12" s="92" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="89"/>
+      <c r="B13" s="89" t="s">
+        <v>94</v>
+      </c>
       <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
+      <c r="D13" s="92" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="89"/>
+      <c r="B14" s="89" t="s">
+        <v>93</v>
+      </c>
       <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
+      <c r="D14" s="89" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="92" t="s">
+        <v>94</v>
+      </c>
       <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
+      <c r="D15" s="92" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="89"/>
+      <c r="B16" s="92" t="s">
+        <v>94</v>
+      </c>
       <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
+      <c r="D16" s="92" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="89"/>
+      <c r="B17" s="91" t="s">
+        <v>117</v>
+      </c>
       <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="D17" s="92" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
+      <c r="B18" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="89"/>
+      <c r="B19" s="92" t="s">
+        <v>94</v>
+      </c>
       <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="D19" s="92" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
+      <c r="B20" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="B21" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
+      <c r="B22" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
+      <c r="B23" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="92" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
+      <c r="B24" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="92" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
+      <c r="B25" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="92" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
+      <c r="B26" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
+      <c r="B27" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
+      <c r="B28" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="92" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
+      <c r="B29" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="92" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
+      <c r="B30" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="92" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
+      <c r="B31" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="92" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="89"/>
+      <c r="B32" s="91" t="s">
+        <v>99</v>
+      </c>
       <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
+      <c r="D32" s="92" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="89"/>
+      <c r="B33" s="91" t="s">
+        <v>99</v>
+      </c>
       <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
+      <c r="D33" s="92" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="89"/>
+      <c r="B34" s="91" t="s">
+        <v>134</v>
+      </c>
       <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
+      <c r="D34" s="92" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
+      <c r="B35" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="92" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
+      <c r="B36" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="92" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
+      <c r="B37" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="92" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
+      <c r="B38" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
+      <c r="B39" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="89"/>
+      <c r="B40" s="93" t="s">
+        <v>105</v>
+      </c>
       <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
+      <c r="D40" s="92" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="89"/>
+      <c r="B41" s="91" t="s">
+        <v>105</v>
+      </c>
       <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
+      <c r="D41" s="92" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="89"/>
+      <c r="B42" s="91" t="s">
+        <v>124</v>
+      </c>
       <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
+      <c r="D42" s="92" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
+      <c r="B43" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7693,6 +8065,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AppVersion xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
@@ -7743,15 +8124,6 @@
     <FolderType xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8196,6 +8568,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43F0676B-6F5B-4293-BCF9-5D31F49595CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8208,14 +8588,6 @@
     <ds:schemaRef ds:uri="816b5155-8360-4c81-a424-e5394c4c2d61"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2025 Software Engineering Use Cases and Features.xlsx
+++ b/2025 Software Engineering Use Cases and Features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsok6\Documents\NBCC Work Documents\Winter 2024\Software Engineering\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsok6\Documents\NBCC Work Documents\Winter 2024\Software Engineering\Project\Repository\SoftwareEngineeringGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D9508A-FB92-4238-8542-380272132F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB433C-6B11-4059-B16F-F8527725379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINTS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="154">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>Admin, Store Worker, Store Manager</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1066,13 +1069,13 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,8 +1316,8 @@
   </sheetPr>
   <dimension ref="A1:N991"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1391,13 +1394,15 @@
       </c>
       <c r="E2" s="5" t="str">
         <f>IF(H2="Done","Done","")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="52"/>
+      <c r="H2" s="52" t="s">
+        <v>153</v>
+      </c>
       <c r="I2" s="68" t="s">
         <v>23</v>
       </c>
@@ -1426,12 +1431,14 @@
       </c>
       <c r="E3" s="5" t="str">
         <f t="shared" ref="E3:E48" si="0">IF(H3="Done","Done","")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="53"/>
+      <c r="H3" s="53" t="s">
+        <v>153</v>
+      </c>
       <c r="I3" s="69" t="s">
         <v>25</v>
       </c>
@@ -1597,13 +1604,15 @@
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="55"/>
+      <c r="H8" s="55" t="s">
+        <v>153</v>
+      </c>
       <c r="I8" s="70" t="s">
         <v>40</v>
       </c>
@@ -6249,7 +6258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27AF674-7194-46AF-8232-662BDA70420A}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -6307,11 +6316,11 @@
       <c r="A5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>93</v>
       </c>
       <c r="C5" s="89"/>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="90" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6319,11 +6328,11 @@
       <c r="A6" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="90" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="89"/>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="91" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6334,7 +6343,7 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="91" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6346,7 +6355,7 @@
         <v>94</v>
       </c>
       <c r="C8" s="89"/>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6358,7 +6367,7 @@
         <v>94</v>
       </c>
       <c r="C9" s="89"/>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="91" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6370,7 +6379,7 @@
         <v>94</v>
       </c>
       <c r="C10" s="89"/>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="91" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6394,7 +6403,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="89"/>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="91" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6406,7 +6415,7 @@
         <v>94</v>
       </c>
       <c r="C13" s="89"/>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="91" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6426,11 +6435,11 @@
       <c r="A15" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="91" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="89"/>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="91" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6438,11 +6447,11 @@
       <c r="A16" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="91" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="89"/>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="91" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6450,11 +6459,11 @@
       <c r="A17" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>117</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="91" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6462,13 +6471,13 @@
       <c r="A18" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="91" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6476,11 +6485,11 @@
       <c r="A19" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="91" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="89"/>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="91" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6488,13 +6497,13 @@
       <c r="A20" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="91" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6502,13 +6511,13 @@
       <c r="A21" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C21" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="91" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6516,13 +6525,13 @@
       <c r="A22" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="90" t="s">
         <v>144</v>
       </c>
       <c r="C22" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="91" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6530,13 +6539,13 @@
       <c r="A23" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="91" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6544,13 +6553,13 @@
       <c r="A24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="91" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6558,13 +6567,13 @@
       <c r="A25" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="90" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="91" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6572,7 +6581,7 @@
       <c r="A26" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C26" s="89" t="s">
@@ -6586,13 +6595,13 @@
       <c r="A27" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="91" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6600,13 +6609,13 @@
       <c r="A28" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C28" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="91" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6614,13 +6623,13 @@
       <c r="A29" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C29" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="92" t="s">
+      <c r="D29" s="91" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6628,13 +6637,13 @@
       <c r="A30" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="91" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6642,13 +6651,13 @@
       <c r="A31" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="91" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6656,11 +6665,11 @@
       <c r="A32" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="90" t="s">
         <v>99</v>
       </c>
       <c r="C32" s="89"/>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="91" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6668,11 +6677,11 @@
       <c r="A33" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="90" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="89"/>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="91" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6680,11 +6689,11 @@
       <c r="A34" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="90" t="s">
         <v>134</v>
       </c>
       <c r="C34" s="89"/>
-      <c r="D34" s="92" t="s">
+      <c r="D34" s="91" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6692,13 +6701,13 @@
       <c r="A35" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C35" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="D35" s="91" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6706,13 +6715,13 @@
       <c r="A36" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="92" t="s">
+      <c r="D36" s="91" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6720,13 +6729,13 @@
       <c r="A37" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="92" t="s">
+      <c r="C37" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="91" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6734,13 +6743,13 @@
       <c r="A38" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="91" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6748,10 +6757,10 @@
       <c r="A39" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="92" t="s">
+      <c r="D39" s="91" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6759,11 +6768,11 @@
       <c r="A40" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="92" t="s">
         <v>105</v>
       </c>
       <c r="C40" s="89"/>
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="91" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6771,11 +6780,11 @@
       <c r="A41" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="91" t="s">
+      <c r="B41" s="90" t="s">
         <v>105</v>
       </c>
       <c r="C41" s="89"/>
-      <c r="D41" s="92" t="s">
+      <c r="D41" s="91" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6783,11 +6792,11 @@
       <c r="A42" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="90" t="s">
         <v>124</v>
       </c>
       <c r="C42" s="89"/>
-      <c r="D42" s="92" t="s">
+      <c r="D42" s="91" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6795,10 +6804,10 @@
       <c r="A43" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="91" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6823,14 +6832,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="93" t="str">
         <f>SPRINTS!G1</f>
         <v>Sprint 1 (Mar 17 - 23)</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7138,14 +7147,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="93" t="str">
         <f>SPRINTS!I1</f>
         <v>Sprint 2 (Mar 24-30)</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7452,14 +7461,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="93" t="str">
         <f>SPRINTS!K1</f>
         <v>Sprint 3 (Mar 31 - Apr 6)</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7766,14 +7775,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="93" t="str">
         <f>SPRINTS!M1</f>
         <v>Sprint 4 (Apr 7 - 11)</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -8065,68 +8074,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AppVersion xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <TeamsChannelId xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <Teachers xmlns="816b5155-8360-4c81-a424-e5394c4c2d61">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Distribution_Groups xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <Templates xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <_activity xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <NotebookType xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <LMS_Mappings xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <Invited_Teachers xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <Invited_Students xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <CultureName xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <Owner xmlns="816b5155-8360-4c81-a424-e5394c4c2d61">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Student_Groups xmlns="816b5155-8360-4c81-a424-e5394c4c2d61">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <Students xmlns="816b5155-8360-4c81-a424-e5394c4c2d61">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Math_Settings xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-    <FolderType xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091969481B7329B4E83D3135D332BAFD9" ma:contentTypeVersion="38" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="957dfb78e647f78be45c8e68d3ef2c83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="816b5155-8360-4c81-a424-e5394c4c2d61" xmlns:ns4="2fb7da5c-65ec-4aea-876a-54e55310ea72" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02b861bb776f6d1e90b3c83cc6ffb939" ns3:_="" ns4:_="">
     <xsd:import namespace="816b5155-8360-4c81-a424-e5394c4c2d61"/>
@@ -8567,10 +8514,83 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AppVersion xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <TeamsChannelId xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <Teachers xmlns="816b5155-8360-4c81-a424-e5394c4c2d61">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Distribution_Groups xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <Templates xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <_activity xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <NotebookType xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <LMS_Mappings xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <Invited_Teachers xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <Invited_Students xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <CultureName xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <Owner xmlns="816b5155-8360-4c81-a424-e5394c4c2d61">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Student_Groups xmlns="816b5155-8360-4c81-a424-e5394c4c2d61">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <Students xmlns="816b5155-8360-4c81-a424-e5394c4c2d61">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Math_Settings xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+    <FolderType xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{196285F5-BF1A-41F8-A960-9E1EE6769B0D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="816b5155-8360-4c81-a424-e5394c4c2d61"/>
+    <ds:schemaRef ds:uri="2fb7da5c-65ec-4aea-876a-54e55310ea72"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8593,20 +8613,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{196285F5-BF1A-41F8-A960-9E1EE6769B0D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="816b5155-8360-4c81-a424-e5394c4c2d61"/>
-    <ds:schemaRef ds:uri="2fb7da5c-65ec-4aea-876a-54e55310ea72"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2025 Software Engineering Use Cases and Features.xlsx
+++ b/2025 Software Engineering Use Cases and Features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsok6\Documents\NBCC Work Documents\Winter 2024\Software Engineering\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Year 1\Winter Semester\Software Engineering\Group Project\SoftwareEngineeringGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D9508A-FB92-4238-8542-380272132F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE93420-CA99-42E7-AF7A-2B179BFF7B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINTS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="154">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>Admin, Store Worker, Store Manager</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1066,13 +1069,13 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,8 +1316,8 @@
   </sheetPr>
   <dimension ref="A1:N991"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1597,13 +1600,15 @@
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="55"/>
+      <c r="H8" s="55" t="s">
+        <v>153</v>
+      </c>
       <c r="I8" s="70" t="s">
         <v>40</v>
       </c>
@@ -1630,12 +1635,14 @@
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="G9" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="53" t="s">
+        <v>153</v>
+      </c>
       <c r="I9" s="66" t="s">
         <v>71</v>
       </c>
@@ -6249,7 +6256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27AF674-7194-46AF-8232-662BDA70420A}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -6307,11 +6314,11 @@
       <c r="A5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>93</v>
       </c>
       <c r="C5" s="89"/>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="90" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6319,11 +6326,11 @@
       <c r="A6" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="90" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="89"/>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="91" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6334,7 +6341,7 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="91" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6346,7 +6353,7 @@
         <v>94</v>
       </c>
       <c r="C8" s="89"/>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6358,7 +6365,7 @@
         <v>94</v>
       </c>
       <c r="C9" s="89"/>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="91" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6370,7 +6377,7 @@
         <v>94</v>
       </c>
       <c r="C10" s="89"/>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="91" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6394,7 +6401,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="89"/>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="91" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6406,7 +6413,7 @@
         <v>94</v>
       </c>
       <c r="C13" s="89"/>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="91" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6426,11 +6433,11 @@
       <c r="A15" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="91" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="89"/>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="91" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6438,11 +6445,11 @@
       <c r="A16" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="91" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="89"/>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="91" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6450,11 +6457,11 @@
       <c r="A17" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>117</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="91" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6462,13 +6469,13 @@
       <c r="A18" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="91" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6476,11 +6483,11 @@
       <c r="A19" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="91" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="89"/>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="91" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6488,13 +6495,13 @@
       <c r="A20" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="91" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6502,13 +6509,13 @@
       <c r="A21" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C21" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="91" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6516,13 +6523,13 @@
       <c r="A22" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="90" t="s">
         <v>144</v>
       </c>
       <c r="C22" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="91" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6530,13 +6537,13 @@
       <c r="A23" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="91" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6544,13 +6551,13 @@
       <c r="A24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="91" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6558,13 +6565,13 @@
       <c r="A25" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="90" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="91" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6572,7 +6579,7 @@
       <c r="A26" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C26" s="89" t="s">
@@ -6586,13 +6593,13 @@
       <c r="A27" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="91" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6600,13 +6607,13 @@
       <c r="A28" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C28" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="91" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6614,13 +6621,13 @@
       <c r="A29" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C29" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="92" t="s">
+      <c r="D29" s="91" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6628,13 +6635,13 @@
       <c r="A30" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="91" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6642,13 +6649,13 @@
       <c r="A31" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="91" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6656,11 +6663,11 @@
       <c r="A32" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="90" t="s">
         <v>99</v>
       </c>
       <c r="C32" s="89"/>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="91" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6668,11 +6675,11 @@
       <c r="A33" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="90" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="89"/>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="91" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6680,11 +6687,11 @@
       <c r="A34" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="90" t="s">
         <v>134</v>
       </c>
       <c r="C34" s="89"/>
-      <c r="D34" s="92" t="s">
+      <c r="D34" s="91" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6692,13 +6699,13 @@
       <c r="A35" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C35" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="D35" s="91" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6706,13 +6713,13 @@
       <c r="A36" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="92" t="s">
+      <c r="D36" s="91" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6720,13 +6727,13 @@
       <c r="A37" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="92" t="s">
+      <c r="C37" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="91" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6734,13 +6741,13 @@
       <c r="A38" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="91" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6748,10 +6755,10 @@
       <c r="A39" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="92" t="s">
+      <c r="D39" s="91" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6759,11 +6766,11 @@
       <c r="A40" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="92" t="s">
         <v>105</v>
       </c>
       <c r="C40" s="89"/>
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="91" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6771,11 +6778,11 @@
       <c r="A41" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="91" t="s">
+      <c r="B41" s="90" t="s">
         <v>105</v>
       </c>
       <c r="C41" s="89"/>
-      <c r="D41" s="92" t="s">
+      <c r="D41" s="91" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6783,11 +6790,11 @@
       <c r="A42" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="90" t="s">
         <v>124</v>
       </c>
       <c r="C42" s="89"/>
-      <c r="D42" s="92" t="s">
+      <c r="D42" s="91" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6795,10 +6802,10 @@
       <c r="A43" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="91" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6823,14 +6830,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="93" t="str">
         <f>SPRINTS!G1</f>
         <v>Sprint 1 (Mar 17 - 23)</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7138,14 +7145,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="93" t="str">
         <f>SPRINTS!I1</f>
         <v>Sprint 2 (Mar 24-30)</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7452,14 +7459,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="93" t="str">
         <f>SPRINTS!K1</f>
         <v>Sprint 3 (Mar 31 - Apr 6)</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7766,14 +7773,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="93" t="str">
         <f>SPRINTS!M1</f>
         <v>Sprint 4 (Apr 7 - 11)</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -8065,15 +8072,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AppVersion xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
@@ -8124,6 +8122,15 @@
     <FolderType xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8568,14 +8575,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43F0676B-6F5B-4293-BCF9-5D31F49595CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8588,6 +8587,14 @@
     <ds:schemaRef ds:uri="816b5155-8360-4c81-a424-e5394c4c2d61"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2025 Software Engineering Use Cases and Features.xlsx
+++ b/2025 Software Engineering Use Cases and Features.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Year 1\Winter Semester\Software Engineering\Group Project\SoftwareEngineeringGroupProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsok6\Documents\NBCC Work Documents\Winter 2024\Software Engineering\Project\Repository\SoftwareEngineeringGroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE93420-CA99-42E7-AF7A-2B179BFF7B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094DD8F7-A264-4A19-B355-911E36BD719C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="154">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:N991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1394,13 +1394,15 @@
       </c>
       <c r="E2" s="5" t="str">
         <f>IF(H2="Done","Done","")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="52"/>
+      <c r="H2" s="52" t="s">
+        <v>153</v>
+      </c>
       <c r="I2" s="68" t="s">
         <v>23</v>
       </c>
@@ -1429,12 +1431,14 @@
       </c>
       <c r="E3" s="5" t="str">
         <f t="shared" ref="E3:E48" si="0">IF(H3="Done","Done","")</f>
-        <v/>
+        <v>Done</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="53"/>
+      <c r="H3" s="53" t="s">
+        <v>153</v>
+      </c>
       <c r="I3" s="69" t="s">
         <v>25</v>
       </c>
@@ -8072,6 +8076,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AppVersion xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
@@ -8122,15 +8135,6 @@
     <FolderType xmlns="816b5155-8360-4c81-a424-e5394c4c2d61" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8575,6 +8579,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43F0676B-6F5B-4293-BCF9-5D31F49595CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8587,14 +8599,6 @@
     <ds:schemaRef ds:uri="816b5155-8360-4c81-a424-e5394c4c2d61"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CB7165-58ED-4A06-BFD6-8951238233C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
